--- a/Language_Compare.xlsx
+++ b/Language_Compare.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Compare" sheetId="1" r:id="rId1"/>
-    <sheet name="OOP" sheetId="2" r:id="rId2"/>
+    <sheet name="Java vs Py" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="OOP" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>Iteration</t>
   </si>
@@ -130,13 +132,226 @@
 -- Inheritance
 -- Data Binding
 -- </t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>str
+' ' - single quotes
+" " - double quotes</t>
+  </si>
+  <si>
+    <t>String
+" " only double quotes</t>
+  </si>
+  <si>
+    <t>UnOrdered +  Unique Collection</t>
+  </si>
+  <si>
+    <t>Ordered (+ Dups) collection</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>primitive</t>
+  </si>
+  <si>
+    <t>int, byte, short, long</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float, double</t>
+  </si>
+  <si>
+    <t>UnOrdered +  Key: value pair</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>Map ( HashMap, HashTable, Properties, Dictionary)</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Ordered (+ Dups) collection ( Immutable ) Tuples</t>
+  </si>
+  <si>
+    <t>tup 
+(ordered + different types)</t>
+  </si>
+  <si>
+    <t>instanceOf, generics are hard to support; 
+contradict with core concepts of Java</t>
+  </si>
+  <si>
+    <t>Arithmetic</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Power - Exm</t>
+  </si>
+  <si>
+    <t>2 ** 3 //print 8</t>
+  </si>
+  <si>
+    <t>Math.pow ( num, pw )</t>
+  </si>
+  <si>
+    <t>Math.pow(2, 3) // print 8</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>variable names</t>
+  </si>
+  <si>
+    <t>-- no number start
+-- no space
+-- no symbols ( except $ )</t>
+  </si>
+  <si>
+    <t>Basics</t>
+  </si>
+  <si>
+    <t>Basics - Exmp</t>
+  </si>
+  <si>
+    <t>my_var = 'some str'
+my_var = [ 'xarr', 300, 123.44, true]</t>
+  </si>
+  <si>
+    <t>predefined and strict; 
+once the type is declared, can not assign different type</t>
+  </si>
+  <si>
+    <r>
+      <t>Dynamic Type;
+Like in Javascript; the variable can be type free;
+Pros: easy; fast;
+Cons: lead to bug if type not handled properly; use</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> type()</t>
+    </r>
+  </si>
+  <si>
+    <t>-- REVERSE INDEXING (use negative index go from last)
+mystrvar = "Hello"
+print ( mystrvar [-1] ) // prints o</t>
+  </si>
+  <si>
+    <t>+' only to concatenate</t>
+  </si>
+  <si>
+    <t>+ is for concat
+* repeat as many times</t>
+  </si>
+  <si>
+    <t>String is IMMUTABLE</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>only length method on a array; other operations can be achieved to helper class</t>
+  </si>
+  <si>
+    <t>gives list of functions like sort, concate, pop etc</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>take user input</t>
+  </si>
+  <si>
+    <t>System.in
+Scanner</t>
+  </si>
+  <si>
+    <t>input ( )</t>
+  </si>
+  <si>
+    <t>-- variable name can not start with number
+-- no space
+-- no symbols ( include $ )</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>dynamic input parameter</t>
+  </si>
+  <si>
+    <t>public int myMethod(Integer… iArr){
+   int sum = 0;
+   for(Integer x in iArr){
+     sum += x; } return sum; }</t>
+  </si>
+  <si>
+    <t>def myfun( *arg ):
+        return sum (arg);</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Ternary Operator</t>
+  </si>
+  <si>
+    <t>( &lt;falseCase&gt;, &lt;trueCase&gt; ) [ condition ]
+=&gt; ( 'false', 'true' ) [ True ]  //gives 'true'</t>
+  </si>
+  <si>
+    <t>true ? "true.." : "false…"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +379,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +413,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -425,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -500,6 +735,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -789,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1139,8 +1383,6 @@
       <c r="A23" s="5"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
@@ -1151,8 +1393,6 @@
       <c r="A24" s="5"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
@@ -1383,9 +1623,334 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
